--- a/source/constructs/config/batch_create/datasource/template/batch_create_jdbc_datasource-en.xlsx
+++ b/source/constructs/config/batch_create/datasource/template/batch_create_jdbc_datasource-en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fansu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuihubin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFFB19C-9558-E146-B201-E360B8624735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725FB411-6EED-7044-82DB-FED6A7316963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13300" xr2:uid="{A3F6337F-BB59-9941-91D9-6943CD218DAB}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>SecretARN</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>ProviderID</t>
+  </si>
+  <si>
+    <t>SecretID</t>
   </si>
   <si>
     <r>
@@ -171,7 +171,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>SecretARN</t>
+      <t>SecretID</t>
     </r>
     <r>
       <rPr>
@@ -690,7 +690,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -737,22 +737,22 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">

--- a/source/constructs/config/batch_create/datasource/template/batch_create_jdbc_datasource-en.xlsx
+++ b/source/constructs/config/batch_create/datasource/template/batch_create_jdbc_datasource-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuihubin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725FB411-6EED-7044-82DB-FED6A7316963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B87E62A-654A-7C48-873A-EA3596C743BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13300" xr2:uid="{A3F6337F-BB59-9941-91D9-6943CD218DAB}"/>
   </bookViews>
@@ -179,7 +179,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: Optional, the ARN of the secret. You can specify the secret Id in the secret manager service under the AWS account where SDP is located (please store the username/password in this secret in advance).
+      <t xml:space="preserve">: Optional, the ID of the secret. You can specify the secret Id in the secret manager service under the AWS account where SDP is located (please store the username/password in this secret in advance).
 - </t>
     </r>
     <r>
@@ -690,7 +690,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
